--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +237,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,38 +572,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -682,20 +682,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -736,30 +736,30 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="B8" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,9 +240,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="H9" sqref="A9:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,38 +572,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -682,20 +682,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -736,14 +736,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44196</v>
+      <c r="A8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,12 +754,12 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="K8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="L8" s="10" t="s">
+        <v>44298</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="H9" sqref="A9:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,10 +754,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="K8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>39</v>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,10 +754,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="K8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>39</v>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,10 +754,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="K8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>39</v>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -185,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,11 +203,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -240,6 +244,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +554,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +595,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -599,11 +606,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -737,13 +744,13 @@
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="K8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>39</v>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
@@ -133,7 +138,7 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no cuenta con recomendaciones del organismo público garante de los Derechos Humanos, conforme lo disponen los Artículos 115 y 120 de la Ley de Derechos Humanos del Estado de Hidalgo.</t>
+    <t>La Universidad Politécnica de Pachuca, no cuenta con las recomendaciones de casos especiales de organismos garantes de derechos humanos.</t>
   </si>
 </sst>
 </file>
@@ -307,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,15 +747,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -761,10 +766,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="K8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>39</v>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -145,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,6 +160,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -221,35 +223,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -261,9 +258,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,23 +553,23 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="84.5703125" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" customWidth="1"/>
+    <col min="12" max="12" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -600,22 +594,22 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -747,15 +741,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -766,12 +760,12 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="K8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>44844</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no cuenta con las recomendaciones de casos especiales de organismos garantes de derechos humanos.</t>
+    <t>La Universidad Politécnica de Pachuca, no ha recibido las recomendaciones de organismos garantes de derechos humanos casos especiales.</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,20 +210,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -234,7 +225,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -243,12 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,38 +565,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -688,20 +675,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -741,15 +728,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -760,12 +747,12 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="K8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="L8" s="5" t="s">
+        <v>44936</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -187,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,11 +215,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -225,14 +248,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,14 +573,14 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -556,7 +589,7 @@
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -581,18 +614,18 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="6"/>
@@ -728,31 +761,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>45016</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="K8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>45026</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -767,6 +800,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3DAE0D1-1407-42AC-BEB9-2C548C310629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +172,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,28 +216,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -249,23 +242,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -394,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +613,7 @@
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -598,38 +622,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -708,20 +732,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -761,15 +785,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -780,12 +804,12 @@
         <v>38</v>
       </c>
       <c r="J8" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="K8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="L8" s="11" t="s">
+        <v>45117</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
